--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4014826.410790113</v>
+        <v>4012574.331078906</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>365.6619522330097</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826034</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>94.17933574607729</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>162.014117045503</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>234.2694209123215</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>122.2882635917094</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>28.59202620056945</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,7 +1108,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>23.35772589727819</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>142.3478174606662</v>
       </c>
       <c r="D8" t="n">
-        <v>127.4503987265498</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.1579442152432</v>
       </c>
       <c r="D10" t="n">
-        <v>66.73769205069597</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.90570098813</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,16 +1585,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>120.4424239494352</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>121.8674042714187</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141584</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>90.85912858529824</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>93.62264337260652</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>107.3178054178675</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>51.36569740310382</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603491</v>
       </c>
       <c r="X28" t="n">
-        <v>133.5893686009543</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>66.25628701154712</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>125.2851635392052</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>237.1280940168098</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>135.3738350208497</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>55.52079624060472</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.06198119183985</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1643.543434242328</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1274.580917301916</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>916.3152186951659</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.03827352421</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2012.898941548398</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>481.6572696514548</v>
+        <v>477.4688890257555</v>
       </c>
       <c r="C4" t="n">
-        <v>481.6572696514548</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="D4" t="n">
-        <v>331.5406302391191</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>161.6427585999383</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1763.643924810206</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1474.54105793585</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1219.856569729963</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>930.4393996930023</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X4" t="n">
-        <v>702.449848794985</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y4" t="n">
-        <v>481.6572696514548</v>
+        <v>659.1173538559952</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1808.800296392464</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392464</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.800296392464</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>531.2215399677106</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>531.2215399677106</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1898.413713542463</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1706.727829369289</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1484.961213938815</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.961213938815</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1230.276725732928</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>940.8595556959676</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>712.8700047979503</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>712.8700047979503</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392149</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>424.0701624477504</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
         <v>424.0701624477504</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4847,7 +4847,7 @@
         <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>618.4760397199826</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C10" t="n">
-        <v>449.5398567920757</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>382.1280466398576</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.675339798491</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.25816976153</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>839.2686188635128</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>618.4760397199826</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273908</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273908</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>95.58405025273908</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>692.9625378792912</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1320.560501433898</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1872.470231673185</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2296.093381168253</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2529.355041543136</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.793114229131</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1052.829365488568</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2227.361618603202</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1972.677130397315</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1683.259960360355</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1455.270409462337</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1234.477830318807</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,22 +5595,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556945</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>415.5933575433587</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>267.6802639609656</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
         <v>175.9033664000583</v>
@@ -5716,7 +5716,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5832,22 +5832,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
         <v>407.9027098310023</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273905</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>692.9625378792909</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>426.0170212122717</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578601</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6239,19 +6239,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612594</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622261</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343192</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219835</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3439841395904</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>302.45403664168</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
         <v>1344.266747951538</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,19 +7160,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,7 +7181,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.176132336855</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2023.574667359796</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1734.499440703994</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1479.814952498107</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,19 +7424,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>221.3431781811715</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969303</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925226</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101294</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122191</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588918</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473703</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>105.267231439602</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>45.37941682720908</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>54.56191943763301</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>73.62417772602132</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>58.20633287440137</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>129.6605885985408</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624193</v>
       </c>
       <c r="X28" t="n">
-        <v>92.12028678808281</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>99.26785128072173</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>55.74112246243936</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25360,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>15.00954930701818</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>45.6524509807949</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26074,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>616338.9411377263</v>
+        <v>616338.9411377262</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>616338.9411377263</v>
+        <v>616338.9411377262</v>
       </c>
     </row>
     <row r="12">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900056</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="J2" t="n">
+        <v>807146.5996900058</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="M2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900058</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900062</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551162</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680575</v>
+        <v>11776.97621680581</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680575</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="H4" t="n">
+        <v>11776.97621680584</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11776.9762168058</v>
+      </c>
+      <c r="J4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11776.97621680585</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680576</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-706600.9274128596</v>
+        <v>-706600.92741286</v>
       </c>
       <c r="C6" t="n">
-        <v>622143.8183147325</v>
+        <v>622143.8183147326</v>
       </c>
       <c r="D6" t="n">
-        <v>622143.818314733</v>
+        <v>622143.8183147328</v>
       </c>
       <c r="E6" t="n">
-        <v>368834.6318419373</v>
+        <v>368799.8939165026</v>
       </c>
       <c r="F6" t="n">
-        <v>694247.0936492935</v>
+        <v>694212.3557238576</v>
       </c>
       <c r="G6" t="n">
-        <v>694247.0936492931</v>
+        <v>694212.3557238574</v>
       </c>
       <c r="H6" t="n">
-        <v>694247.0936492934</v>
+        <v>694212.3557238578</v>
       </c>
       <c r="I6" t="n">
-        <v>694247.0936492928</v>
+        <v>694212.3557238578</v>
       </c>
       <c r="J6" t="n">
-        <v>476715.8912520158</v>
+        <v>476681.1533265796</v>
       </c>
       <c r="K6" t="n">
-        <v>694247.0936492933</v>
+        <v>694212.3557238574</v>
       </c>
       <c r="L6" t="n">
-        <v>694247.0936492935</v>
+        <v>694212.3557238574</v>
       </c>
       <c r="M6" t="n">
-        <v>609192.0657137815</v>
+        <v>609157.327788346</v>
       </c>
       <c r="N6" t="n">
-        <v>694247.0936492934</v>
+        <v>694212.3557238578</v>
       </c>
       <c r="O6" t="n">
-        <v>694247.0936492928</v>
+        <v>694212.3557238576</v>
       </c>
       <c r="P6" t="n">
-        <v>694247.0936492933</v>
+        <v>694212.3557238576</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.07188943047089</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.5496012734502</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>71.84647251295094</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>57.53483223066624</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>131.0034708586861</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>259.6421064805524</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>60.34012646947788</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>195.2269274548166</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>222.9250743103414</v>
       </c>
       <c r="D8" t="n">
-        <v>227.2326428941331</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>150.0888768833846</v>
       </c>
       <c r="D10" t="n">
-        <v>81.87778096751639</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.530977974472237e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28138,13 +28138,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-5.530977974472237e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-5.530977974472237e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.330269228105863e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-5.530977974472237e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28324,22 +28324,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.530977974472237e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.530977974472237e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.530977974472237e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.530977974472237e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,10 +28375,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-5.530977974472237e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>169.6252075171348</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,25 +32315,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32552,25 +32552,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>316.6133175811573</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,7 +32783,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>362.5355639238077</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>707.690770008913</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967487</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>322.7581251332984</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143859</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>459.1396705889915</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,16 +33980,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>264.8708611242907</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>208.6096528357816</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.94570355317081</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36200,25 +36200,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>174.479283659139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>222.5537898377862</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>576.3490579255797</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.8381222824185</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>180.6240912112801</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.5258557699415</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>320.5852908091173</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,16 +37628,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>127.0294221499317</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>66.47561891376326</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
